--- a/WinForm_Project/01-04/Winform_project.xlsx
+++ b/WinForm_Project/01-04/Winform_project.xlsx
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:BO31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1583,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
